--- a/T3/T3_NCLOC_WMC.xlsx
+++ b/T3/T3_NCLOC_WMC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\repos\udem\IFT3913\PPHdUni-IFT3913_TP2\T3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132C15E9-E551-413C-8CBE-24790CA79F55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EDC10A-0A2A-4792-B65A-267DD088D47A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2655" yWindow="-16320" windowWidth="35865" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,10 @@
     <t>#</t>
   </si>
   <si>
-    <t>NLOC</t>
+    <t>WMC</t>
   </si>
   <si>
-    <t>WMC</t>
+    <t>NCLOC</t>
   </si>
 </sst>
 </file>
@@ -185,7 +185,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NLOC</c:v>
+                  <c:v>NCLOC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8281,6 +8281,3889 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WMC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$633</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="632"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>509</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>513</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>517</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>534</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>539</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>543</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>547</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>549</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>552</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>553</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>557</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>559</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>562</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>565</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>567</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>569</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>578</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>579</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>587</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>591</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>592</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>596</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>597</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>598</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>599</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>602</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>603</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>604</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>606</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>607</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>612</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>616</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>617</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>618</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>619</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>622</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>623</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>624</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>626</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>627</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>628</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>632</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$633</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="632"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>683</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D1F2-4C2D-96AD-F50F16AF45BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="462345856"/>
+        <c:axId val="590120640"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
@@ -8289,7 +12172,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NLOC</c:v>
+                  <c:v>NCLOC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8320,29 +12203,15 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:intercept val="0"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="25400" cap="rnd" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="dash"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -12171,3875 +16040,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="462345856"/>
-        <c:axId val="590120640"/>
-      </c:scatterChart>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>WMC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$633</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="632"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>219</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>223</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>226</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>227</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>228</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>229</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>231</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>232</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>233</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>234</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>236</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>237</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>238</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>239</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>241</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>242</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>243</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>246</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>247</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>249</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>251</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>253</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>254</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>257</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>258</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>259</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>261</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>262</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>263</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>264</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>266</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>267</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>268</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>269</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>271</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>272</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>273</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>274</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>275</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>276</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>277</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>278</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>279</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>281</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>282</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>283</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>284</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>285</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>286</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>287</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>288</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>289</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>291</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>292</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>293</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>294</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>295</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>296</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>297</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>298</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>299</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>301</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>302</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>303</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>304</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>305</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>306</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>307</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>308</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>309</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>311</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>312</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>313</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>314</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>315</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>316</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>317</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>318</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>319</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>321</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>322</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>323</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>324</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>325</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>326</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>327</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>328</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>329</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>331</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>332</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>333</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>334</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>335</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>336</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>337</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>338</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>339</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>341</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>342</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>343</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>344</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>345</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>346</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>347</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>348</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>349</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>351</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>352</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>353</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>354</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>355</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>356</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>357</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>358</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>362</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>363</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>364</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>365</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>366</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>367</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>368</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>369</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>371</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>372</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>373</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>374</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>375</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>376</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>377</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>378</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>379</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>381</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>382</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>383</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>384</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>385</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>386</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>387</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>388</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>389</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>391</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>393</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>394</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>395</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>396</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>397</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>398</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>399</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>401</c:v>
-                </c:pt>
-                <c:pt idx="401">
-                  <c:v>402</c:v>
-                </c:pt>
-                <c:pt idx="402">
-                  <c:v>403</c:v>
-                </c:pt>
-                <c:pt idx="403">
-                  <c:v>404</c:v>
-                </c:pt>
-                <c:pt idx="404">
-                  <c:v>405</c:v>
-                </c:pt>
-                <c:pt idx="405">
-                  <c:v>406</c:v>
-                </c:pt>
-                <c:pt idx="406">
-                  <c:v>407</c:v>
-                </c:pt>
-                <c:pt idx="407">
-                  <c:v>408</c:v>
-                </c:pt>
-                <c:pt idx="408">
-                  <c:v>409</c:v>
-                </c:pt>
-                <c:pt idx="409">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="410">
-                  <c:v>411</c:v>
-                </c:pt>
-                <c:pt idx="411">
-                  <c:v>412</c:v>
-                </c:pt>
-                <c:pt idx="412">
-                  <c:v>413</c:v>
-                </c:pt>
-                <c:pt idx="413">
-                  <c:v>414</c:v>
-                </c:pt>
-                <c:pt idx="414">
-                  <c:v>415</c:v>
-                </c:pt>
-                <c:pt idx="415">
-                  <c:v>416</c:v>
-                </c:pt>
-                <c:pt idx="416">
-                  <c:v>417</c:v>
-                </c:pt>
-                <c:pt idx="417">
-                  <c:v>418</c:v>
-                </c:pt>
-                <c:pt idx="418">
-                  <c:v>419</c:v>
-                </c:pt>
-                <c:pt idx="419">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="420">
-                  <c:v>421</c:v>
-                </c:pt>
-                <c:pt idx="421">
-                  <c:v>422</c:v>
-                </c:pt>
-                <c:pt idx="422">
-                  <c:v>423</c:v>
-                </c:pt>
-                <c:pt idx="423">
-                  <c:v>424</c:v>
-                </c:pt>
-                <c:pt idx="424">
-                  <c:v>425</c:v>
-                </c:pt>
-                <c:pt idx="425">
-                  <c:v>426</c:v>
-                </c:pt>
-                <c:pt idx="426">
-                  <c:v>427</c:v>
-                </c:pt>
-                <c:pt idx="427">
-                  <c:v>428</c:v>
-                </c:pt>
-                <c:pt idx="428">
-                  <c:v>429</c:v>
-                </c:pt>
-                <c:pt idx="429">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="430">
-                  <c:v>431</c:v>
-                </c:pt>
-                <c:pt idx="431">
-                  <c:v>432</c:v>
-                </c:pt>
-                <c:pt idx="432">
-                  <c:v>433</c:v>
-                </c:pt>
-                <c:pt idx="433">
-                  <c:v>434</c:v>
-                </c:pt>
-                <c:pt idx="434">
-                  <c:v>435</c:v>
-                </c:pt>
-                <c:pt idx="435">
-                  <c:v>436</c:v>
-                </c:pt>
-                <c:pt idx="436">
-                  <c:v>437</c:v>
-                </c:pt>
-                <c:pt idx="437">
-                  <c:v>438</c:v>
-                </c:pt>
-                <c:pt idx="438">
-                  <c:v>439</c:v>
-                </c:pt>
-                <c:pt idx="439">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="440">
-                  <c:v>441</c:v>
-                </c:pt>
-                <c:pt idx="441">
-                  <c:v>442</c:v>
-                </c:pt>
-                <c:pt idx="442">
-                  <c:v>443</c:v>
-                </c:pt>
-                <c:pt idx="443">
-                  <c:v>444</c:v>
-                </c:pt>
-                <c:pt idx="444">
-                  <c:v>445</c:v>
-                </c:pt>
-                <c:pt idx="445">
-                  <c:v>446</c:v>
-                </c:pt>
-                <c:pt idx="446">
-                  <c:v>447</c:v>
-                </c:pt>
-                <c:pt idx="447">
-                  <c:v>448</c:v>
-                </c:pt>
-                <c:pt idx="448">
-                  <c:v>449</c:v>
-                </c:pt>
-                <c:pt idx="449">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="450">
-                  <c:v>451</c:v>
-                </c:pt>
-                <c:pt idx="451">
-                  <c:v>452</c:v>
-                </c:pt>
-                <c:pt idx="452">
-                  <c:v>453</c:v>
-                </c:pt>
-                <c:pt idx="453">
-                  <c:v>454</c:v>
-                </c:pt>
-                <c:pt idx="454">
-                  <c:v>455</c:v>
-                </c:pt>
-                <c:pt idx="455">
-                  <c:v>456</c:v>
-                </c:pt>
-                <c:pt idx="456">
-                  <c:v>457</c:v>
-                </c:pt>
-                <c:pt idx="457">
-                  <c:v>458</c:v>
-                </c:pt>
-                <c:pt idx="458">
-                  <c:v>459</c:v>
-                </c:pt>
-                <c:pt idx="459">
-                  <c:v>460</c:v>
-                </c:pt>
-                <c:pt idx="460">
-                  <c:v>461</c:v>
-                </c:pt>
-                <c:pt idx="461">
-                  <c:v>462</c:v>
-                </c:pt>
-                <c:pt idx="462">
-                  <c:v>463</c:v>
-                </c:pt>
-                <c:pt idx="463">
-                  <c:v>464</c:v>
-                </c:pt>
-                <c:pt idx="464">
-                  <c:v>465</c:v>
-                </c:pt>
-                <c:pt idx="465">
-                  <c:v>466</c:v>
-                </c:pt>
-                <c:pt idx="466">
-                  <c:v>467</c:v>
-                </c:pt>
-                <c:pt idx="467">
-                  <c:v>468</c:v>
-                </c:pt>
-                <c:pt idx="468">
-                  <c:v>469</c:v>
-                </c:pt>
-                <c:pt idx="469">
-                  <c:v>470</c:v>
-                </c:pt>
-                <c:pt idx="470">
-                  <c:v>471</c:v>
-                </c:pt>
-                <c:pt idx="471">
-                  <c:v>472</c:v>
-                </c:pt>
-                <c:pt idx="472">
-                  <c:v>473</c:v>
-                </c:pt>
-                <c:pt idx="473">
-                  <c:v>474</c:v>
-                </c:pt>
-                <c:pt idx="474">
-                  <c:v>475</c:v>
-                </c:pt>
-                <c:pt idx="475">
-                  <c:v>476</c:v>
-                </c:pt>
-                <c:pt idx="476">
-                  <c:v>477</c:v>
-                </c:pt>
-                <c:pt idx="477">
-                  <c:v>478</c:v>
-                </c:pt>
-                <c:pt idx="478">
-                  <c:v>479</c:v>
-                </c:pt>
-                <c:pt idx="479">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="480">
-                  <c:v>481</c:v>
-                </c:pt>
-                <c:pt idx="481">
-                  <c:v>482</c:v>
-                </c:pt>
-                <c:pt idx="482">
-                  <c:v>483</c:v>
-                </c:pt>
-                <c:pt idx="483">
-                  <c:v>484</c:v>
-                </c:pt>
-                <c:pt idx="484">
-                  <c:v>485</c:v>
-                </c:pt>
-                <c:pt idx="485">
-                  <c:v>486</c:v>
-                </c:pt>
-                <c:pt idx="486">
-                  <c:v>487</c:v>
-                </c:pt>
-                <c:pt idx="487">
-                  <c:v>488</c:v>
-                </c:pt>
-                <c:pt idx="488">
-                  <c:v>489</c:v>
-                </c:pt>
-                <c:pt idx="489">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="490">
-                  <c:v>491</c:v>
-                </c:pt>
-                <c:pt idx="491">
-                  <c:v>492</c:v>
-                </c:pt>
-                <c:pt idx="492">
-                  <c:v>493</c:v>
-                </c:pt>
-                <c:pt idx="493">
-                  <c:v>494</c:v>
-                </c:pt>
-                <c:pt idx="494">
-                  <c:v>495</c:v>
-                </c:pt>
-                <c:pt idx="495">
-                  <c:v>496</c:v>
-                </c:pt>
-                <c:pt idx="496">
-                  <c:v>497</c:v>
-                </c:pt>
-                <c:pt idx="497">
-                  <c:v>498</c:v>
-                </c:pt>
-                <c:pt idx="498">
-                  <c:v>499</c:v>
-                </c:pt>
-                <c:pt idx="499">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="500">
-                  <c:v>501</c:v>
-                </c:pt>
-                <c:pt idx="501">
-                  <c:v>502</c:v>
-                </c:pt>
-                <c:pt idx="502">
-                  <c:v>503</c:v>
-                </c:pt>
-                <c:pt idx="503">
-                  <c:v>504</c:v>
-                </c:pt>
-                <c:pt idx="504">
-                  <c:v>505</c:v>
-                </c:pt>
-                <c:pt idx="505">
-                  <c:v>506</c:v>
-                </c:pt>
-                <c:pt idx="506">
-                  <c:v>507</c:v>
-                </c:pt>
-                <c:pt idx="507">
-                  <c:v>508</c:v>
-                </c:pt>
-                <c:pt idx="508">
-                  <c:v>509</c:v>
-                </c:pt>
-                <c:pt idx="509">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="510">
-                  <c:v>511</c:v>
-                </c:pt>
-                <c:pt idx="511">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="512">
-                  <c:v>513</c:v>
-                </c:pt>
-                <c:pt idx="513">
-                  <c:v>514</c:v>
-                </c:pt>
-                <c:pt idx="514">
-                  <c:v>515</c:v>
-                </c:pt>
-                <c:pt idx="515">
-                  <c:v>516</c:v>
-                </c:pt>
-                <c:pt idx="516">
-                  <c:v>517</c:v>
-                </c:pt>
-                <c:pt idx="517">
-                  <c:v>518</c:v>
-                </c:pt>
-                <c:pt idx="518">
-                  <c:v>519</c:v>
-                </c:pt>
-                <c:pt idx="519">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="520">
-                  <c:v>521</c:v>
-                </c:pt>
-                <c:pt idx="521">
-                  <c:v>522</c:v>
-                </c:pt>
-                <c:pt idx="522">
-                  <c:v>523</c:v>
-                </c:pt>
-                <c:pt idx="523">
-                  <c:v>524</c:v>
-                </c:pt>
-                <c:pt idx="524">
-                  <c:v>525</c:v>
-                </c:pt>
-                <c:pt idx="525">
-                  <c:v>526</c:v>
-                </c:pt>
-                <c:pt idx="526">
-                  <c:v>527</c:v>
-                </c:pt>
-                <c:pt idx="527">
-                  <c:v>528</c:v>
-                </c:pt>
-                <c:pt idx="528">
-                  <c:v>529</c:v>
-                </c:pt>
-                <c:pt idx="529">
-                  <c:v>530</c:v>
-                </c:pt>
-                <c:pt idx="530">
-                  <c:v>531</c:v>
-                </c:pt>
-                <c:pt idx="531">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="532">
-                  <c:v>533</c:v>
-                </c:pt>
-                <c:pt idx="533">
-                  <c:v>534</c:v>
-                </c:pt>
-                <c:pt idx="534">
-                  <c:v>535</c:v>
-                </c:pt>
-                <c:pt idx="535">
-                  <c:v>536</c:v>
-                </c:pt>
-                <c:pt idx="536">
-                  <c:v>537</c:v>
-                </c:pt>
-                <c:pt idx="537">
-                  <c:v>538</c:v>
-                </c:pt>
-                <c:pt idx="538">
-                  <c:v>539</c:v>
-                </c:pt>
-                <c:pt idx="539">
-                  <c:v>540</c:v>
-                </c:pt>
-                <c:pt idx="540">
-                  <c:v>541</c:v>
-                </c:pt>
-                <c:pt idx="541">
-                  <c:v>542</c:v>
-                </c:pt>
-                <c:pt idx="542">
-                  <c:v>543</c:v>
-                </c:pt>
-                <c:pt idx="543">
-                  <c:v>544</c:v>
-                </c:pt>
-                <c:pt idx="544">
-                  <c:v>545</c:v>
-                </c:pt>
-                <c:pt idx="545">
-                  <c:v>546</c:v>
-                </c:pt>
-                <c:pt idx="546">
-                  <c:v>547</c:v>
-                </c:pt>
-                <c:pt idx="547">
-                  <c:v>548</c:v>
-                </c:pt>
-                <c:pt idx="548">
-                  <c:v>549</c:v>
-                </c:pt>
-                <c:pt idx="549">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="550">
-                  <c:v>551</c:v>
-                </c:pt>
-                <c:pt idx="551">
-                  <c:v>552</c:v>
-                </c:pt>
-                <c:pt idx="552">
-                  <c:v>553</c:v>
-                </c:pt>
-                <c:pt idx="553">
-                  <c:v>554</c:v>
-                </c:pt>
-                <c:pt idx="554">
-                  <c:v>555</c:v>
-                </c:pt>
-                <c:pt idx="555">
-                  <c:v>556</c:v>
-                </c:pt>
-                <c:pt idx="556">
-                  <c:v>557</c:v>
-                </c:pt>
-                <c:pt idx="557">
-                  <c:v>558</c:v>
-                </c:pt>
-                <c:pt idx="558">
-                  <c:v>559</c:v>
-                </c:pt>
-                <c:pt idx="559">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="560">
-                  <c:v>561</c:v>
-                </c:pt>
-                <c:pt idx="561">
-                  <c:v>562</c:v>
-                </c:pt>
-                <c:pt idx="562">
-                  <c:v>563</c:v>
-                </c:pt>
-                <c:pt idx="563">
-                  <c:v>564</c:v>
-                </c:pt>
-                <c:pt idx="564">
-                  <c:v>565</c:v>
-                </c:pt>
-                <c:pt idx="565">
-                  <c:v>566</c:v>
-                </c:pt>
-                <c:pt idx="566">
-                  <c:v>567</c:v>
-                </c:pt>
-                <c:pt idx="567">
-                  <c:v>568</c:v>
-                </c:pt>
-                <c:pt idx="568">
-                  <c:v>569</c:v>
-                </c:pt>
-                <c:pt idx="569">
-                  <c:v>570</c:v>
-                </c:pt>
-                <c:pt idx="570">
-                  <c:v>571</c:v>
-                </c:pt>
-                <c:pt idx="571">
-                  <c:v>572</c:v>
-                </c:pt>
-                <c:pt idx="572">
-                  <c:v>573</c:v>
-                </c:pt>
-                <c:pt idx="573">
-                  <c:v>574</c:v>
-                </c:pt>
-                <c:pt idx="574">
-                  <c:v>575</c:v>
-                </c:pt>
-                <c:pt idx="575">
-                  <c:v>576</c:v>
-                </c:pt>
-                <c:pt idx="576">
-                  <c:v>577</c:v>
-                </c:pt>
-                <c:pt idx="577">
-                  <c:v>578</c:v>
-                </c:pt>
-                <c:pt idx="578">
-                  <c:v>579</c:v>
-                </c:pt>
-                <c:pt idx="579">
-                  <c:v>580</c:v>
-                </c:pt>
-                <c:pt idx="580">
-                  <c:v>581</c:v>
-                </c:pt>
-                <c:pt idx="581">
-                  <c:v>582</c:v>
-                </c:pt>
-                <c:pt idx="582">
-                  <c:v>583</c:v>
-                </c:pt>
-                <c:pt idx="583">
-                  <c:v>584</c:v>
-                </c:pt>
-                <c:pt idx="584">
-                  <c:v>585</c:v>
-                </c:pt>
-                <c:pt idx="585">
-                  <c:v>586</c:v>
-                </c:pt>
-                <c:pt idx="586">
-                  <c:v>587</c:v>
-                </c:pt>
-                <c:pt idx="587">
-                  <c:v>588</c:v>
-                </c:pt>
-                <c:pt idx="588">
-                  <c:v>589</c:v>
-                </c:pt>
-                <c:pt idx="589">
-                  <c:v>590</c:v>
-                </c:pt>
-                <c:pt idx="590">
-                  <c:v>591</c:v>
-                </c:pt>
-                <c:pt idx="591">
-                  <c:v>592</c:v>
-                </c:pt>
-                <c:pt idx="592">
-                  <c:v>593</c:v>
-                </c:pt>
-                <c:pt idx="593">
-                  <c:v>594</c:v>
-                </c:pt>
-                <c:pt idx="594">
-                  <c:v>595</c:v>
-                </c:pt>
-                <c:pt idx="595">
-                  <c:v>596</c:v>
-                </c:pt>
-                <c:pt idx="596">
-                  <c:v>597</c:v>
-                </c:pt>
-                <c:pt idx="597">
-                  <c:v>598</c:v>
-                </c:pt>
-                <c:pt idx="598">
-                  <c:v>599</c:v>
-                </c:pt>
-                <c:pt idx="599">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="600">
-                  <c:v>601</c:v>
-                </c:pt>
-                <c:pt idx="601">
-                  <c:v>602</c:v>
-                </c:pt>
-                <c:pt idx="602">
-                  <c:v>603</c:v>
-                </c:pt>
-                <c:pt idx="603">
-                  <c:v>604</c:v>
-                </c:pt>
-                <c:pt idx="604">
-                  <c:v>605</c:v>
-                </c:pt>
-                <c:pt idx="605">
-                  <c:v>606</c:v>
-                </c:pt>
-                <c:pt idx="606">
-                  <c:v>607</c:v>
-                </c:pt>
-                <c:pt idx="607">
-                  <c:v>608</c:v>
-                </c:pt>
-                <c:pt idx="608">
-                  <c:v>609</c:v>
-                </c:pt>
-                <c:pt idx="609">
-                  <c:v>610</c:v>
-                </c:pt>
-                <c:pt idx="610">
-                  <c:v>611</c:v>
-                </c:pt>
-                <c:pt idx="611">
-                  <c:v>612</c:v>
-                </c:pt>
-                <c:pt idx="612">
-                  <c:v>613</c:v>
-                </c:pt>
-                <c:pt idx="613">
-                  <c:v>614</c:v>
-                </c:pt>
-                <c:pt idx="614">
-                  <c:v>615</c:v>
-                </c:pt>
-                <c:pt idx="615">
-                  <c:v>616</c:v>
-                </c:pt>
-                <c:pt idx="616">
-                  <c:v>617</c:v>
-                </c:pt>
-                <c:pt idx="617">
-                  <c:v>618</c:v>
-                </c:pt>
-                <c:pt idx="618">
-                  <c:v>619</c:v>
-                </c:pt>
-                <c:pt idx="619">
-                  <c:v>620</c:v>
-                </c:pt>
-                <c:pt idx="620">
-                  <c:v>621</c:v>
-                </c:pt>
-                <c:pt idx="621">
-                  <c:v>622</c:v>
-                </c:pt>
-                <c:pt idx="622">
-                  <c:v>623</c:v>
-                </c:pt>
-                <c:pt idx="623">
-                  <c:v>624</c:v>
-                </c:pt>
-                <c:pt idx="624">
-                  <c:v>625</c:v>
-                </c:pt>
-                <c:pt idx="625">
-                  <c:v>626</c:v>
-                </c:pt>
-                <c:pt idx="626">
-                  <c:v>627</c:v>
-                </c:pt>
-                <c:pt idx="627">
-                  <c:v>628</c:v>
-                </c:pt>
-                <c:pt idx="628">
-                  <c:v>629</c:v>
-                </c:pt>
-                <c:pt idx="629">
-                  <c:v>630</c:v>
-                </c:pt>
-                <c:pt idx="630">
-                  <c:v>631</c:v>
-                </c:pt>
-                <c:pt idx="631">
-                  <c:v>632</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$2:$D$633</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="632"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="401">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="402">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="403">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="404">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="405">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="406">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="407">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="408">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="409">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="410">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="411">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="412">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="413">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="414">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="415">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="416">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="417">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="418">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="419">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="420">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="421">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="422">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="423">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="424">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="425">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="426">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="427">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="428">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="429">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="430">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="431">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="432">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="433">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="434">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="435">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="436">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="437">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="438">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="439">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="440">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="441">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="442">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="443">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="444">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="445">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="446">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="447">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="448">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="449">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="450">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="451">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="452">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="453">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="454">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="455">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="456">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="457">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="458">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="459">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="460">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="461">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="462">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="463">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="464">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="465">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="466">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="467">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="468">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="469">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="470">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="471">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="472">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="473">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="474">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="475">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="476">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="477">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="478">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="479">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="480">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="481">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="482">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="483">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="484">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="485">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="486">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="487">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="488">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="489">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="490">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="491">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="492">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="493">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="494">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="495">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="496">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="497">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="498">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="499">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="500">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="501">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="502">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="503">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="504">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="505">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="506">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="507">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="508">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="509">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="510">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="511">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="512">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="513">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="514">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="515">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="516">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="517">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="518">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="519">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="520">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="521">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="522">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="523">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="524">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="525">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="526">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="527">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="528">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="529">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="530">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="531">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="532">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="533">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="534">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="535">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="536">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="537">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="538">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="539">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="540">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="541">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="542">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="543">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="544">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="545">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="546">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="547">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="548">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="549">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="550">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="551">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="552">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="553">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="554">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="555">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="556">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="557">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="558">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="559">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="560">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="561">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="562">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="563">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="564">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="565">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="566">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="567">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="568">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="569">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="570">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="571">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="572">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="573">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="574">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="575">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="576">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="577">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="578">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="579">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="580">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="581">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="582">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="583">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="584">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="585">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="586">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="587">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="588">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="589">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="590">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="591">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="592">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="593">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="594">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="595">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="596">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="597">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="598">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="599">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="600">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="601">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="602">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="603">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="604">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="605">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="606">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="607">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="608">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="609">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="610">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="611">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="612">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="613">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="614">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="615">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="616">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="617">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="618">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="619">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="620">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="621">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="622">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="623">
-                  <c:v>249</c:v>
-                </c:pt>
-                <c:pt idx="624">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="625">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="626">
-                  <c:v>346</c:v>
-                </c:pt>
-                <c:pt idx="627">
-                  <c:v>461</c:v>
-                </c:pt>
-                <c:pt idx="628">
-                  <c:v>327</c:v>
-                </c:pt>
-                <c:pt idx="629">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="630">
-                  <c:v>683</c:v>
-                </c:pt>
-                <c:pt idx="631">
-                  <c:v>802</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D1F2-4C2D-96AD-F50F16AF45BB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="190309424"/>
-        <c:axId val="590119808"/>
+        <c:axId val="780530112"/>
+        <c:axId val="780528864"/>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="462345856"/>
@@ -16124,6 +16126,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA"/>
+                  <a:t>WMC</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -16166,12 +16223,67 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="590119808"/>
+        <c:axId val="780528864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA"/>
+                  <a:t>NCLOC</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -16209,12 +16321,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190309424"/>
+        <c:crossAx val="780530112"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="190309424"/>
+        <c:axId val="780530112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16224,7 +16336,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="590119808"/>
+        <c:crossAx val="780528864"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -22485,8 +22597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D633"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="AD111" sqref="AD111"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="AD83" sqref="AD83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22499,10 +22611,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
